--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R99a80e0f356a4d82"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R3ac28645903746ab"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfd6f3ec929bd4c19"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6eb922c6e9ce43b3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb6ce76f904914312"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9d6ef9af2f5245fe"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R3ac28645903746ab"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R6a7d47d8e23e4468"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6eb922c6e9ce43b3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf2524b1c96f04655"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9d6ef9af2f5245fe"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9a4033dd8c804cc6"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R6a7d47d8e23e4468"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R9626e82644a04f80"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf2524b1c96f04655"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rab556c9172304be1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9a4033dd8c804cc6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0c80b80322d8490b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R9626e82644a04f80"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R19bd7459868549a2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rab556c9172304be1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf5777f8bb19c4fd7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0c80b80322d8490b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4759264bbfbe456f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R19bd7459868549a2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rbe43944ec85d4bf2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf5777f8bb19c4fd7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1a24621364d746b0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4759264bbfbe456f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4be817c991cf44e9"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rbe43944ec85d4bf2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Re7a281c076954e08"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1a24621364d746b0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R18f9623aaf3c4f6a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4be817c991cf44e9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf0d4116a08604b14"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Re7a281c076954e08"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rd0befb4e869c4f28"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R18f9623aaf3c4f6a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb8507641a32343f9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf0d4116a08604b14"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb5707d288b4e498a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rd0befb4e869c4f28"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R0dc3e39e4119401f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb8507641a32343f9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R36708ed5418542d1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb5707d288b4e498a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R15392bdd05f54a33"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R0dc3e39e4119401f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R0443f92504cf4567"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R36708ed5418542d1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5b9df7eff6004b2c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R15392bdd05f54a33"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R05b6e61e8a4b486e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R0443f92504cf4567"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Refffb954e6124377"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5b9df7eff6004b2c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ref22697146e64b2b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R05b6e61e8a4b486e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R89ac45df67aa4602"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Refffb954e6124377"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R2cb9f8b5c3514383"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ref22697146e64b2b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0f4e23aa5b85493e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R89ac45df67aa4602"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7a38115d8f6942d9"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R2cb9f8b5c3514383"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R9d62e715123e445d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0f4e23aa5b85493e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Reb971b59afd84af5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7a38115d8f6942d9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9412463ea40f48d4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R9d62e715123e445d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rdf478bb18ca94e67"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Reb971b59afd84af5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R48469ee0dc8c4553"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9412463ea40f48d4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re2f9cf98f00d4ef0"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rdf478bb18ca94e67"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R9e9d2039f1314e7d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R48469ee0dc8c4553"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R06bfdd69da9242be"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re2f9cf98f00d4ef0"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re0a4857d02b24346"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R9e9d2039f1314e7d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R546ecd9c49944204"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R06bfdd69da9242be"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6bcc61bb35584e49"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re0a4857d02b24346"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdae19ad889e646ea"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R546ecd9c49944204"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R6e5f84813889421d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6bcc61bb35584e49"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd41d62a00a8e475c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdae19ad889e646ea"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R92b7e1646ad44d53"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R6e5f84813889421d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rd9460168978e4775"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd41d62a00a8e475c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf614c26d82d24598"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R92b7e1646ad44d53"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re1cccdb1703248cf"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rd9460168978e4775"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R381547d1fa4543aa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf614c26d82d24598"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc583507b50064201"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re1cccdb1703248cf"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9bd3a39f3d19417a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R381547d1fa4543aa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rda5e94c774914b12"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc583507b50064201"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5ef5f3a1c8af410f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9bd3a39f3d19417a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7b6156a44b304197"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rda5e94c774914b12"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rfd103aacc5bf4cb5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5ef5f3a1c8af410f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3224134683a0423f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7b6156a44b304197"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc267791fb2bd4862"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rfd103aacc5bf4cb5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R613513a882a24062"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3224134683a0423f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R86dba7d51ced4730"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc267791fb2bd4862"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5bc6ea1db3b7429f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R613513a882a24062"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Ra18c440e83df4127"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R86dba7d51ced4730"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4f9ee8e57cc14a35"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5bc6ea1db3b7429f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R73d9e30ee50749de"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Ra18c440e83df4127"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R3231cb529e864d52"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4f9ee8e57cc14a35"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re71c4809957e4c49"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R73d9e30ee50749de"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R56f5d3f7684d4bda"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/52_StackedAreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R3231cb529e864d52"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R6a442f235ada41c5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re71c4809957e4c49"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R60589b71a0044488"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -287,6 +287,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R56f5d3f7684d4bda"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3d4a5bd3154c47da"/>
 </x:worksheet>
 </file>